--- a/Tracy/Dataschema_TRACY.xlsx
+++ b/Tracy/Dataschema_TRACY.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Age at exposure measure</t>
+          <t>Age at exposure measure [years]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Physical activity from questionnaire data</t>
+          <t>Physical activity from questionnaire data [MET-hr/day]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">

--- a/Tracy/Dataschema_TRACY.xlsx
+++ b/Tracy/Dataschema_TRACY.xlsx
@@ -983,7 +983,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Age at diagnosis of CVD</t>
+          <t>Age at diagnosis of CVD [years]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Age at diagnosis of angina pectoris</t>
+          <t>Age at diagnosis of angina pectoris [years]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Age at diagnosis of myocardial infarction</t>
+          <t>Age at diagnosis of myocardial infarction [years]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Age at diagnosis of stroke</t>
+          <t>Age at diagnosis of stroke [years]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Age at diagnosis of cerebral infarction (ischaemic stroke)</t>
+          <t>Age at diagnosis of cerebral infarction (ischaemic stroke) [years]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Age at diagnosis of haemorrhagic stroke</t>
+          <t>Age at diagnosis of haemorrhagic stroke [years]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Age at diagnosis of essential hypertension</t>
+          <t>Age at diagnosis of essential hypertension [years]</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Age at diagnosis of heart failure</t>
+          <t>Age at diagnosis of heart failure [years]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Age at diagnosis of diabetes mellitus type 2</t>
+          <t>Age at diagnosis of diabetes mellitus type 2 [years]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Age at diagnosis of cancer</t>
+          <t>Age at diagnosis of cancer [years]</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Age at time of death</t>
+          <t>Age at time of death [years]</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
